--- a/src/assets/data/2_Gestion de la Calidad/Caracterizacion/GC-FOR-013 Indicadores del proceso Gestion de la Calidad.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Caracterizacion/GC-FOR-013 Indicadores del proceso Gestion de la Calidad.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGI" sheetId="1" r:id="rId3"/>
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mg1OKRvhQXUU5KGji3SUBv76HKBmw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mhNT2RUPBlR8qDN8r+OmZBeOsP0UA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE MANIZALES </t>
   </si>
@@ -109,11 +109,23 @@
   <si>
     <t>(Metas cumplidas en indicadores x 100) / Total de indicadores establecidos</t>
   </si>
+  <si>
+    <t>Fecha de aprobación:</t>
+  </si>
+  <si>
+    <t>Aprobó:</t>
+  </si>
+  <si>
+    <t>Aseguramiento de la calidad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11.0"/>
@@ -334,21 +346,18 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -361,7 +370,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -372,14 +381,11 @@
     <xf borderId="14" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -390,10 +396,16 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -403,7 +415,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -414,7 +426,7 @@
     <xdr:ext cx="838200" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -442,7 +454,7 @@
     <xdr:ext cx="1123950" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -464,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -525,7 +537,7 @@
     <row r="3" ht="24.0" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
@@ -537,15 +549,15 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="24.0" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
@@ -557,32 +569,32 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="17"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="9.0" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" ht="7.5" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -590,12 +602,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" ht="23.25" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
@@ -603,27 +615,27 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
@@ -631,21 +643,21 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5"/>
@@ -653,21 +665,21 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5"/>
@@ -675,21 +687,21 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5"/>
@@ -697,21 +709,21 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" ht="57.0" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5"/>
@@ -719,20 +731,20 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" ht="7.5" customHeight="1">
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -748,31 +760,75 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
+    <row r="14">
+      <c r="A14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="31">
+        <v>43776.0</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="27">
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.2755905511811024" footer="0.0" header="0.0" left="0.2755905511811024" right="0.2755905511811024" top="0.35433070866141736"/>
